--- a/Finflux Automation Excels/Client/4209-RBI-EI-DB-DL-REC-CTRFD-RNI-FEE-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/4209-RBI-EI-DB-DL-REC-CTRFD-RNI-FEE-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -214,8 +214,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -228,7 +238,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -289,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -302,19 +311,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -326,7 +332,26 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,7 +716,7 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>42036</v>
       </c>
     </row>
@@ -738,7 +763,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>10000</v>
       </c>
       <c r="B2" s="3">
@@ -748,7 +773,7 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>9214.42</v>
       </c>
       <c r="F2" s="3">
@@ -824,636 +849,637 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19">
         <v>42005</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="13">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="20">
         <v>10000</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="18">
         <v>31</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="19">
         <v>42036</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="19">
         <v>42036</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="3">
+      <c r="E3" s="21"/>
+      <c r="F3" s="18">
         <v>785.58</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="22">
         <v>9214.42</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="18">
         <v>102.14</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="18">
         <v>100</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
         <v>987.72</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="18">
         <v>987.72</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="18">
         <v>28</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="19">
         <v>42064</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18">
         <v>802.89</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="22">
         <v>8411.5300000000007</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="18">
         <v>84.83</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
         <v>887.72</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="18">
         <v>31</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="19">
         <v>42095</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
         <v>793.8</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="22">
         <v>7617.73</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="18">
         <v>93.92</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
         <v>887.72</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="18">
         <v>30</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="19">
         <v>42125</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
         <v>812.58</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="22">
         <v>6805.15</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="18">
         <v>75.14</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
         <v>887.72</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="18">
         <v>31</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="19">
         <v>42156</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18">
         <v>818.36</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="22">
         <v>5986.79</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="18">
         <v>69.36</v>
       </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
         <v>887.72</v>
       </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="18">
         <v>30</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="19">
         <v>42186</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
         <v>828.67</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="22">
         <v>5158.12</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="18">
         <v>59.05</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
         <v>887.72</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="18">
         <v>31</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="19">
         <v>42217</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
         <v>835.15</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="22">
         <v>4322.97</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="18">
         <v>52.57</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
         <v>887.72</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="18">
         <v>31</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="19">
         <v>42248</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18">
         <v>843.66</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="22">
         <v>3479.31</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="18">
         <v>44.06</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
         <v>887.72</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="18">
         <v>30</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="19">
         <v>42278</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18">
         <v>853.41</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="22">
         <v>2625.9</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="18">
         <v>34.31</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
         <v>887.72</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="18">
         <v>31</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="19">
         <v>42309</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18">
         <v>860.96</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="22">
         <v>1764.94</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="18">
         <v>26.76</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
         <v>887.72</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="18">
         <v>30</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="19">
         <v>42339</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
         <v>870.31</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="18">
         <v>894.63</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="18">
         <v>17.41</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
         <v>887.72</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="18">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="18">
         <v>31</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="19">
         <v>42370</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18">
         <v>894.63</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
         <v>9.1199999999999992</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
         <v>903.75</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
         <v>903.75</v>
       </c>
     </row>
@@ -1485,7 +1511,7 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1524,7 +1550,7 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>42095</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1548,8 +1574,8 @@
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1558,7 +1584,7 @@
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>42064</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1582,8 +1608,8 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1592,7 +1618,7 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1613,11 +1639,11 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>9214.42</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1626,7 +1652,7 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1650,8 +1676,8 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1660,13 +1686,13 @@
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>42005</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>10000</v>
       </c>
       <c r="F6" s="3">
@@ -1681,7 +1707,7 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>10000</v>
       </c>
       <c r="K6"/>
@@ -1713,31 +1739,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1748,7 +1774,7 @@
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1774,7 +1800,7 @@
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1819,135 +1845,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>802</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>42036</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>803</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>42036</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>804</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>42036</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>805</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>42036</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1960,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1978,54 +2004,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>790</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>42036</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -2033,25 +2059,25 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>791</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>42036</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>48</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -2059,25 +2085,25 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>792</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>42036</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -2085,25 +2111,25 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>793</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>42036</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -2111,25 +2137,25 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>806</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>42064</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -2137,25 +2163,25 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>807</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>42064</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -2163,25 +2189,25 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>808</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>42095</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2189,25 +2215,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>809</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>42095</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="5" t="s">
